--- a/uploads/process-files/2026/01/PF20260130005.xlsx
+++ b/uploads/process-files/2026/01/PF20260130005.xlsx
@@ -2384,6 +2384,576 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="19050"/>
+          <a:ext cx="1019175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="19050"/>
+          <a:ext cx="895350" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="19050"/>
+          <a:ext cx="771525" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="19050"/>
+          <a:ext cx="1000125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="19050"/>
+          <a:ext cx="1019175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="19050"/>
+          <a:ext cx="895350" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="19050"/>
+          <a:ext cx="771525" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="19050"/>
+          <a:ext cx="1000125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="19050"/>
+          <a:ext cx="1019175" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="19050"/>
+          <a:ext cx="895350" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="19050"/>
+          <a:ext cx="771525" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="19050"/>
+          <a:ext cx="1000125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2343150" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
